--- a/datos_index.xlsx
+++ b/datos_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b4839a0f9366ccf/Escritorio/rapidflex-final-site/pagina-web-rapidflex/paginaweb-final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B8CF208E-783C-4D74-9E94-269BAB4F88B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97FA5455-D75A-45A1-BD08-43D24F72A65A}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B8CF208E-783C-4D74-9E94-269BAB4F88B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A84B3004-B97E-4648-A345-75123FF4AF09}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>nav_servicio</t>
   </si>
   <si>
-    <t>Servicio</t>
-  </si>
-  <si>
     <t>nav_despachar</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>Inicio</t>
+  </si>
+  <si>
+    <t>Servicios</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,63 +486,63 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
